--- a/public/Daily Reports In Month Of May.xlsx
+++ b/public/Daily Reports In Month Of May.xlsx
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
-  <si>
-    <t>May</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
   <si>
     <t>Sales</t>
   </si>
@@ -360,7 +357,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -368,20 +365,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>5245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="E4">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>1255.0</v>
+      <c r="F4">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="E5">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>21360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="E6">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>3540</v>
       </c>
     </row>
   </sheetData>
